--- a/logistik/web/uploads/TemplateInputSN (4).xlsx
+++ b/logistik/web/uploads/TemplateInputSN (4).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>SERIAL_NUMBER</t>
   </si>
@@ -46,10 +46,13 @@
     <t>Reject</t>
   </si>
   <si>
-    <t>SN0001</t>
+    <t>SN10001</t>
   </si>
   <si>
-    <t>SN0002</t>
+    <t>SN10002</t>
+  </si>
+  <si>
+    <t>SN10003</t>
   </si>
 </sst>
 </file>
@@ -150,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,7 +188,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I11" sqref="I11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,6 +435,14 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
